--- a/Riesgo/DataTarea_Exogenas_Riesgo13.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main/Riesgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main (1)/CUECOPolMon-main/Riesgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E644FDC-3377-4267-9CC7-71DC2102F75B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{714E11DD-592B-463F-BB73-C3972A26CB55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,10 +581,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>1.4430951174366471</v>
+        <v>1.1930951174366471</v>
       </c>
       <c r="D3" s="4">
-        <v>0.41384956126651085</v>
+        <v>0.16384956126651085</v>
       </c>
       <c r="E3" s="5">
         <v>0.44486636482210801</v>
@@ -599,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>1.375390183492327</v>
+        <v>1.125390183492327</v>
       </c>
       <c r="D4" s="4">
-        <v>0.62667017433157601</v>
+        <v>0.37667017433157601</v>
       </c>
       <c r="E4" s="5">
         <v>0.57845143642782193</v>
@@ -617,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>1.5680305634547</v>
+        <v>1.0680305634547</v>
       </c>
       <c r="D5" s="4">
-        <v>0.7955613233791039</v>
+        <v>0.5455613233791039</v>
       </c>
       <c r="E5" s="5">
         <v>0.4117351943892178</v>
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>1.519435493358821</v>
+        <v>1.019435493358821</v>
       </c>
       <c r="D6" s="4">
-        <v>0.92482938470867504</v>
+        <v>0.67482938470867504</v>
       </c>
       <c r="E6" s="5">
         <v>0.45820178226351821</v>
@@ -653,10 +653,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>1.7282657499735929</v>
+        <v>1.2282657499735929</v>
       </c>
       <c r="D7" s="4">
-        <v>1.020894955175071</v>
+        <v>0.77089495517507101</v>
       </c>
       <c r="E7" s="5">
         <v>0.22959451491770339</v>
@@ -671,10 +671,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>1.693386743377628</v>
+        <v>1.193386743377628</v>
       </c>
       <c r="D8" s="4">
-        <v>1.090408717430285</v>
+        <v>0.840408717430285</v>
       </c>
       <c r="E8" s="5">
         <v>0.23498942934416095</v>
@@ -689,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>1.663837248989527</v>
+        <v>1.163837248989527</v>
       </c>
       <c r="D9" s="4">
-        <v>1.1394703557769941</v>
+        <v>0.88947035577699407</v>
       </c>
       <c r="E9" s="5">
         <v>0.23098513620855102</v>
@@ -707,10 +707,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>1.6388029173439269</v>
+        <v>1.1388029173439269</v>
       </c>
       <c r="D10" s="4">
-        <v>1.173303583980273</v>
+        <v>0.92330358398027301</v>
       </c>
       <c r="E10" s="5">
         <v>0.22214599439094412</v>
